--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187422.950464928</v>
+        <v>1166616.288808417</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800614</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.63541173</v>
+        <v>1169509.511665974</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10583094.62700956</v>
+        <v>11423767.42356056</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>99.69856304335892</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>132.686867311371</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.35153719005467</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>237.933284306384</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>180.8840510798601</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30.5411064605312</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.09950899181528</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>131.8179123113443</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174073</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014452</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>80.09091720605275</v>
+        <v>115.5269768002157</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113101</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>140.5678108961688</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>173.989811090624</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065094</v>
       </c>
       <c r="U19" t="n">
-        <v>145.8998232290785</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002151</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>88.23851788996306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.9338790902133</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>23.54872654977472</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>28.01945746894936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>10.45915033354384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1004.183115213127</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.183115213127</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2331.915775164532</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2078.153989802623</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1747.091102459053</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.322447188938</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.322447188938</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1004.183115213127</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>705.5516739134498</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>557.4050153476338</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>625.3727659270879</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C5" t="n">
-        <v>625.3727659270879</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D5" t="n">
-        <v>625.3727659270879</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4564,19 +4564,19 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733118</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2459.409238841786</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2459.409238841786</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2128.346351498215</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1775.577696228101</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X5" t="n">
-        <v>1402.111937967022</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.97260599121</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4667,28 +4667,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2416.347450234789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2085.284562891219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1732.515907621104</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1732.515907621104</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>594.9795778313392</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6911546495019</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6911546495019</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.73288364332</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899122</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207825</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014288</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231258</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141862</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465296</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121725</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256431</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277026</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>563.7235867775539</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170015</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834047</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1075.21084526296</v>
+        <v>213.9110074200996</v>
       </c>
       <c r="C13" t="n">
-        <v>906.2746623350536</v>
+        <v>213.9110074200996</v>
       </c>
       <c r="D13" t="n">
-        <v>756.1580229227178</v>
+        <v>213.9110074200996</v>
       </c>
       <c r="E13" t="n">
-        <v>608.2449293403247</v>
+        <v>213.9110074200996</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799357</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471181</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609644</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550775</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>441.9005583181169</v>
       </c>
       <c r="X13" t="n">
-        <v>1075.21084526296</v>
+        <v>213.9110074200996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1075.21084526296</v>
+        <v>213.9110074200996</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405189</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155813</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805394</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277024</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845904</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1670.043068977051</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1999.905696641083</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>964.1357418247858</v>
+        <v>266.1532743881926</v>
       </c>
       <c r="C16" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1323.168986627976</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>810.2549326310401</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>555.5704444251533</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>266.1532743881926</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247858</v>
+        <v>266.1532743881926</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.1357418247858</v>
+        <v>266.1532743881926</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L18" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>816.762183007535</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>213.9110074200991</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488911</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,13 +6457,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
         <v>1198.760773441947</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4845.969074748059</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4556.551904711098</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4328.562353813081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4107.769774669551</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632138</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>822.148054050878</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3443.999848753677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>3751.319982033639</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1120.27517048334</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1120.27517048334</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>865.5906822774532</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>576.1735122404926</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>576.1735122404926</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>576.1735122404926</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0201325405893</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>655.1211752119023</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711638</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028835</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978567</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445233</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231156</v>
+        <v>52.49733361305806</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>73.53204524669985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498454</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>83.76145304628682</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.77121276485963</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>35.56426927779773</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.124658516474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.84727966881351</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>65.33013081687849</v>
+        <v>29.89407122271558</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.617018127348274e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.04766212204359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>23.93099889297932</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518798</v>
       </c>
       <c r="U19" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271615</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.8991254338649</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>171.3064480792181</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>27.33984058837405</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799475</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>44.61368196817594</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>228.5889167740533</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>258.5035408676416</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>215.2505050554933</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976592</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976589</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974114.4331976596</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114792</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114793</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114797</v>
@@ -26352,10 +26352,10 @@
         <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.985577106708661e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.112509494305414e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773406</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="M4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871653</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871649</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399561.742436189</v>
+        <v>-404602.6707097261</v>
       </c>
       <c r="C6" t="n">
-        <v>190406.1367783554</v>
+        <v>185365.2085048186</v>
       </c>
       <c r="D6" t="n">
-        <v>190406.1367783554</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="E6" t="n">
-        <v>-223447.8802318667</v>
+        <v>-224422.4714915879</v>
       </c>
       <c r="F6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="G6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853069</v>
       </c>
       <c r="H6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="I6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853065</v>
       </c>
       <c r="J6" t="n">
-        <v>125288.9370524362</v>
+        <v>124314.3457927148</v>
       </c>
       <c r="K6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="L6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="M6" t="n">
-        <v>166911.1410111922</v>
+        <v>165936.5497514707</v>
       </c>
       <c r="N6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="O6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="P6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540992</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370127</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990165</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.926370499016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990165</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>265.5743287276487</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>116.7497573142989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.1240855196266</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>96.92615468724722</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443612</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444941</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.696754517665</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961201</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041482</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304433</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565511</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927178</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540879</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946986</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647491</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446475</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104638</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562942</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354889</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127056</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622978</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358979</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.558410972484</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813455</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.959946685552</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458545</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710953</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367746</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936148</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298624</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557932</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196121</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171316</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065629</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469071</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.387743223569</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337661</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336897</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892237</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351803</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434341</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3926104730631</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415075</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303324</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951465</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109116</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502043</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349782</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490646</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879388</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958094</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004655</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980123</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178371</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315243</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507382</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556539</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799282</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789722</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056034</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206026</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187459</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642237</v>
+        <v>334.8610358541654</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L18" t="n">
-        <v>322.7897502027242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36694,7 +36694,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37405,7 +37405,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003116</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166616.288808417</v>
+        <v>1183685.161273599</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800614</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665974</v>
+        <v>2990033.635411731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11423767.42356056</v>
+        <v>10583094.62700956</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>99.69856304335892</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.1261655753732</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>237.933284306384</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>50.83779374652716</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.5411064605312</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>373.8049896618768</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365808</v>
+        <v>182.8258003202642</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174073</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014452</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5269768002157</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>75.9814283556159</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113101</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>173.989811090624</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.56876306769565</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065094</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002151</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>215.2379773637537</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>58.75775985151827</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.525532102719195</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.598454859979</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>115.5269768002176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>29.06239247952515</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.47824782066053</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>23.54872654977472</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>127.6691770542757</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.4046520073175</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1163.758837964547</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>752.7729331749397</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>334.8091250731266</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.483574129469</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.483574129469</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>523.2580967368515</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>523.2580967368515</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>105.2942886350384</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>105.2942886350384</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,10 +4591,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
@@ -4603,16 +4603,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.483574129469</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.483574129469</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.483574129469</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>667.8624625746712</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>667.8624625746712</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>667.8624625746712</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1116.984198029372</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>758.7184994226211</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>758.7184994226211</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>543.4564586304098</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.73288364332</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899122</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207825</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014288</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231258</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141862</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465296</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121725</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256431</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277026</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775539</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170015</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834047</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074200996</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074200996</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074200996</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>213.9110074200996</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028576</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028576</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799357</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471181</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347406</v>
+        <v>1422.167353026977</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609644</v>
+        <v>1422.167353026977</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550775</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181169</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074200996</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074200996</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550595</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610184</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003433</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405189</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155813</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805394</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014286</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231256</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014186</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465294</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121723</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851609</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590529</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614717</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.708168625643</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277024</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845904</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977051</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641083</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136707</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881926</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1323.168986627976</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1099.383571417482</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>810.2549326310401</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>555.5704444251533</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1532743881926</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881926</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881926</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636234</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643584</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307616</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526312</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823868</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514156</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571601</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636234</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643584</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307616</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526312</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074200991</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074200991</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074200991</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074200991</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347406</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609639</v>
+        <v>1057.718757000182</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550771</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181165</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074200991</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074200991</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="23">
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1439.564997980611</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1439.564997980611</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1439.564997980611</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>1439.564997980611</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>1211.575447082594</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>201.8619953592546</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273991</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904385</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>326.6213191924212</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.8287400488911</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1326.612261067772</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.612261067772</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>782.7991340754431</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,28 +6958,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>644.700260475621</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>494.5836210632852</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.001039296941</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>896.58386925998</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619627</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="41">
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665166</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1966.019627967826</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1369.957505856614</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1080.828867070172</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1080.828867070172</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>791.4116970332115</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711638</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028835</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978567</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445233</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305806</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776804</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720825</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776804</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498454</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>159.0121003135244</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.796607188984</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>101.0935224983341</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>33.07105607983459</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,28 +23181,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>69.31184300356381</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>29.89407122271558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.5661327027734</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.617018127348274e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>140.7163658137795</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>23.93099889297932</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>120.3450652998405</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518798</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271615</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>70.99937503482363</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>162.789801206871</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.3064480792181</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>62.89511360339856</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>27.33984058837405</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.08849621799475</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>117.371570167044</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>64.95571482590864</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,16 +25602,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>228.5889167740533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>93.87838400411354</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.18000134477734</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143274</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>974114.4331976592</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976589</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.43319766</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114792</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114793</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114797</v>
@@ -26337,19 +26337,19 @@
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="N2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476895</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.985577106708661e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.112509494305414e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338368</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773406</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871653</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871649</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097261</v>
+        <v>-400168.583810771</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048186</v>
+        <v>189799.2954037735</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048185</v>
+        <v>189799.2954037734</v>
       </c>
       <c r="E6" t="n">
-        <v>-224422.4714915879</v>
+        <v>-223545.3393578392</v>
       </c>
       <c r="F6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="G6" t="n">
-        <v>300737.5649853069</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="H6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="I6" t="n">
-        <v>300737.5649853065</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="J6" t="n">
-        <v>124314.3457927148</v>
+        <v>125191.4779264641</v>
       </c>
       <c r="K6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.697119057</v>
       </c>
       <c r="L6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="M6" t="n">
-        <v>165936.5497514707</v>
+        <v>166813.6818852198</v>
       </c>
       <c r="N6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
       <c r="O6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
       <c r="P6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.6971190571</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540992</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370127</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990165</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499016</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990165</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265.5743287276487</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458411</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>116.7497573142989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.1240855196266</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724722</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443612</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444941</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.696754517665</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961201</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041482</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304433</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565511</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927178</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540879</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946986</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647491</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446475</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104638</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562942</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354889</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127056</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622978</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358979</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.558410972484</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813455</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.959946685552</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458545</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710953</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1761272367746</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936148</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298624</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557932</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196121</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171316</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065629</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469071</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.387743223569</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337661</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336897</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892237</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351803</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434341</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3926104730631</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415075</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303324</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951465</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109116</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502043</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349782</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490646</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879388</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958094</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004655</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980123</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178371</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315243</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507382</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556539</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799282</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789722</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056034</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206026</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187459</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490637</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879387</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004653</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.194573398012</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541654</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.093414931524</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507368</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970350593</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092045</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415161</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005173</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092045</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36931,7 +36931,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003116</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>366.105515245049</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
